--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_yoy_CONSTR.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_yoy_CONSTR.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,30 +525,6 @@
         <v>-3.350381746968589</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
-        <v>46022</v>
-      </c>
-      <c r="B18">
-        <v>-1.170471075968671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
-        <v>46387</v>
-      </c>
-      <c r="B19">
-        <v>1.283949199780565</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
-        <v>46752</v>
-      </c>
-      <c r="B20">
-        <v>2.485688171285982</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_yoy_CONSTR.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_yoy_CONSTR.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,130 +399,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>40178</v>
+        <v>39400</v>
       </c>
       <c r="B2">
-        <v>-0.067713637019573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>40543</v>
-      </c>
-      <c r="B3">
-        <v>3.806842309501812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>40908</v>
-      </c>
-      <c r="B4">
-        <v>-0.04474218868824043</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <v>41274</v>
-      </c>
-      <c r="B5">
-        <v>4.336676854539312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
-        <v>41639</v>
-      </c>
-      <c r="B6">
-        <v>7.626686360401624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
-        <v>42004</v>
-      </c>
-      <c r="B7">
-        <v>1.934124927918357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2">
-        <v>42369</v>
-      </c>
-      <c r="B8">
-        <v>0.6936324259625648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2">
-        <v>42735</v>
-      </c>
-      <c r="B9">
-        <v>1.556377277149723</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2">
-        <v>43100</v>
-      </c>
-      <c r="B10">
-        <v>3.365781500254306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2">
-        <v>43465</v>
-      </c>
-      <c r="B11">
-        <v>4.132663238279033</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2">
-        <v>43830</v>
-      </c>
-      <c r="B12">
-        <v>3.183558550921317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
-        <v>44196</v>
-      </c>
-      <c r="B13">
-        <v>-2.79139997555311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2">
-        <v>44561</v>
-      </c>
-      <c r="B14">
-        <v>-3.606719041733442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2">
-        <v>44926</v>
-      </c>
-      <c r="B15">
-        <v>1.613985729693246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2">
-        <v>45291</v>
-      </c>
-      <c r="B16">
-        <v>-1.992466799383086</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
-        <v>45657</v>
-      </c>
-      <c r="B17">
-        <v>-3.350381746968589</v>
+        <v>5.361718827437545</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_yoy_CONSTR.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_yoy_CONSTR.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>value</t>
+    <t>first_release_value</t>
   </si>
   <si>
     <t>date</t>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,164 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>39400</v>
-      </c>
-      <c r="B2">
+        <v>38717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>39082</v>
+      </c>
+      <c r="B3">
         <v>5.361718827437545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>39447</v>
+      </c>
+      <c r="B4">
+        <v>2.685523658736089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>39813</v>
+      </c>
+      <c r="B5">
+        <v>0.6019580713040096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>40178</v>
+      </c>
+      <c r="B6">
+        <v>-2.848383350681438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>40543</v>
+      </c>
+      <c r="B7">
+        <v>0.5670099411379192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>40908</v>
+      </c>
+      <c r="B8">
+        <v>5.44843673085138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>41274</v>
+      </c>
+      <c r="B9">
+        <v>-0.6152915357131694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>41639</v>
+      </c>
+      <c r="B10">
+        <v>0.4729742736614195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>42004</v>
+      </c>
+      <c r="B11">
+        <v>2.566421764830462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B12">
+        <v>0.8407878010570302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>42735</v>
+      </c>
+      <c r="B13">
+        <v>2.194841098049016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B14">
+        <v>2.643540836453884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>43465</v>
+      </c>
+      <c r="B15">
+        <v>2.959935600123309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B16">
+        <v>3.452860220335019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B17">
+        <v>1.607096457785584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B18">
+        <v>-3.136134057684858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B19">
+        <v>1.613985729693268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B20">
+        <v>-1.992466799383086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B21">
+        <v>-3.350381746968589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>46022</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_yoy_CONSTR.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_yoy_CONSTR.xlsx
@@ -519,7 +519,7 @@
         <v>44196</v>
       </c>
       <c r="B17">
-        <v>1.607096457785584</v>
+        <v>1.048752728802249</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -527,7 +527,7 @@
         <v>44561</v>
       </c>
       <c r="B18">
-        <v>-3.136134057684858</v>
+        <v>-0.5552236940995159</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -535,7 +535,7 @@
         <v>44926</v>
       </c>
       <c r="B19">
-        <v>1.613985729693268</v>
+        <v>-0.5410587107603559</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -543,7 +543,7 @@
         <v>45291</v>
       </c>
       <c r="B20">
-        <v>-1.992466799383086</v>
+        <v>0.03107944302578325</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -551,7 +551,7 @@
         <v>45657</v>
       </c>
       <c r="B21">
-        <v>-3.350381746968589</v>
+        <v>0.214889648150618</v>
       </c>
     </row>
     <row r="22" spans="1:2">
